--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2350921.348866669</v>
+        <v>2348544.721919303</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9478451.173900181</v>
+        <v>9478451.173900183</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>28.36958878671066</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>32.15122014292474</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>83.96419053910869</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>226.6923007769141</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.70882917873372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874984</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256048</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>199.5962211436403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329281</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503991</v>
       </c>
       <c r="D13" t="n">
-        <v>148.615473018211</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977439</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428436</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>285.5970594671161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.97448884043964</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
-        <v>48.85497112745768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>82.30974811734201</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.3216348137587</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>861.3216348137587</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>861.3216348137587</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>861.3216348137587</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>450.3357300241511</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,19 +4325,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.5991786999831</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>398.5991786999831</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>398.5991786999831</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>398.5991786999831</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>251.7092312020727</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>83.72276651035133</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302228</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.2476435302228</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1445.96558289315</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1077.003065952738</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="D5" t="n">
-        <v>1077.003065952738</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="E5" t="n">
-        <v>691.2148133544936</v>
+        <v>835.237827230432</v>
       </c>
       <c r="F5" t="n">
-        <v>280.228908564886</v>
+        <v>828.2923264812285</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>412.5875762055174</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>108.5284322030877</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.9860105762135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1434.833775484961</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.416605448001</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>917.4270545499834</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.6344754064532</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998304</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121671</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121671</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121671</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.721318527047</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138438</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703137</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,28 +5984,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703778</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969299</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2441.938347377797</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2259.083513032701</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.482048055643</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>464.5051450557705</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.691883631198</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032912</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614378</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013344</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111067</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976784</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569276</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-9.77396353803295e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.076220703084872e-12</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822877</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664495</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219395</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9259388694749191</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>61.400757869682</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
-        <v>118.3918499711702</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>66.30572490087035</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>835491.4104457165</v>
+        <v>835491.4104457163</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731967</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731956</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731942</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731935</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731947</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726226.2288794152</v>
+        <v>-726226.2288794153</v>
       </c>
       <c r="C6" t="n">
-        <v>388525.554696504</v>
+        <v>388525.5546965045</v>
       </c>
       <c r="D6" t="n">
-        <v>388525.5546965041</v>
+        <v>388525.5546965044</v>
       </c>
       <c r="E6" t="n">
-        <v>-11365.33410768081</v>
+        <v>-11400.07203311642</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914298</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.1075168655</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168657</v>
+        <v>496085.3695914291</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="J6" t="n">
-        <v>328514.9297068827</v>
+        <v>328480.1917814469</v>
       </c>
       <c r="K6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="L6" t="n">
-        <v>496120.1075168654</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="M6" t="n">
-        <v>363512.8137879386</v>
+        <v>363478.0758625026</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.1075168652</v>
+        <v>496085.3695914292</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168653</v>
+        <v>496085.3695914294</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,31 +26972,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802255</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>383.1781139862433</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1002890122041</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>141.7454648499285</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>184.8554019960399</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>9.001083493736743</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460823779</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176733</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.54142218018765</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.8349695036629</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.105823316955884e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28251,61 +28251,61 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.319714707885093e-12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,28 +31844,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391846</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419612</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433002</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>529.7874664804599</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193515</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899094</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394542</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
